--- a/3rd Assigment.xlsx
+++ b/3rd Assigment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:41000001_{22908E0C-B068-554E-A8B6-4BD50F501381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D8C7DC3C-ABFC-CD46-84FD-34D8F1CB1A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="5" xr2:uid="{AB5D773F-3270-4F88-843E-90E79EEEB45E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" xr2:uid="{AB5D773F-3270-4F88-843E-90E79EEEB45E}"/>
   </bookViews>
   <sheets>
     <sheet name="Question 1 " sheetId="1" r:id="rId1"/>
@@ -1130,7 +1130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{613553E8-373D-40E8-B419-E3A0FB23B13A}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -1697,7 +1697,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4560C7B2-F33C-42D8-BED1-76E75AB8F7B3}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
